--- a/WheelFriction.xlsx
+++ b/WheelFriction.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -205,17 +205,17 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="22"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="22"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -576,7 +576,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -588,51 +588,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="3">
         <v>143.5</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3">
         <v>143</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="5"/>
       <c r="G4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="6"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:10">
@@ -731,10 +731,10 @@
       <c r="B11">
         <v>1780</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <f>E9/E10</f>
         <v>3.2454361054766734E-2</v>
       </c>
@@ -761,10 +761,10 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="5"/>
       <c r="D14" t="s">
         <v>15</v>
       </c>
@@ -773,10 +773,10 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="6"/>
       <c r="D15" t="s">
         <v>16</v>
       </c>
@@ -815,17 +815,17 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
-        <f>(B17-2*B17*E11)/B16</f>
-        <v>0.8843541198719056</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="2">
+        <f>(B17-(2*B17+E6)*E11)/B16</f>
+        <v>0.87891981320754275</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="2">
         <f>E16/E17</f>
         <v>3.3509700176366841E-2</v>
       </c>
@@ -853,12 +853,12 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="5">
-        <f>(B23-2*B23*E11)/B22</f>
-        <v>0.69683375963845084</v>
+      <c r="B24" s="2">
+        <f>(B23-(2*B23+E6)*E11)/B22</f>
+        <v>0.69431703399059408</v>
       </c>
     </row>
   </sheetData>

--- a/WheelFriction.xlsx
+++ b/WheelFriction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="22"/>
@@ -214,6 +214,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +579,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -612,10 +615,10 @@
       <c r="E2" s="3"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
@@ -625,10 +628,10 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="7"/>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
@@ -636,10 +639,10 @@
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>857</v>
       </c>
       <c r="D6" t="s">
@@ -651,10 +654,10 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>1230</v>
       </c>
       <c r="D7" t="s">
@@ -671,10 +674,10 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <f>B7/B6</f>
         <v>1.4352392065344224</v>
       </c>
@@ -689,10 +692,10 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="7"/>
       <c r="D9" t="s">
         <v>13</v>
       </c>
@@ -702,10 +705,10 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>1850.5</v>
       </c>
       <c r="D10" t="s">
@@ -725,10 +728,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1780</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -740,10 +743,10 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <f>B11/B10</f>
         <v>0.96190218859767629</v>
       </c>
@@ -753,6 +756,8 @@
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
       <c r="D13" t="s">
         <v>17</v>
       </c>

--- a/WheelFriction.xlsx
+++ b/WheelFriction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24920" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="440" windowWidth="23720" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>1 wheel</t>
   </si>
@@ -76,13 +76,28 @@
   </si>
   <si>
     <t>Sliding Friction(NEW)</t>
+  </si>
+  <si>
+    <t>Uncertainty</t>
+  </si>
+  <si>
+    <t>dmu/dm1</t>
+  </si>
+  <si>
+    <t>dmu/dm2</t>
+  </si>
+  <si>
+    <t>dmu/dm3</t>
+  </si>
+  <si>
+    <t>dmu/dmu_r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +142,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -164,7 +202,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,8 +210,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -201,8 +267,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="22"/>
@@ -219,8 +321,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="22" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="63">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -234,6 +365,24 @@
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="22" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
@@ -247,6 +396,24 @@
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -576,104 +743,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3">
         <v>143.5</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="E1" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3"/>
       <c r="B2" s="3">
         <v>143</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="G4" s="1" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="C5" s="9"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>857</v>
       </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>143.5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="C6" s="10"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>1230</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>55.5</v>
-      </c>
-      <c r="G7">
+      <c r="C7" s="10"/>
+      <c r="D7">
         <v>1379</v>
       </c>
-      <c r="J7">
+      <c r="F7">
         <v>1850.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,68 +841,50 @@
         <f>B7/B6</f>
         <v>1.4352392065344224</v>
       </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>47.5</v>
-      </c>
-      <c r="J8">
+      <c r="C8" s="10"/>
+      <c r="D8"/>
+      <c r="F8">
         <v>1780</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <f>E7-E8</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="C9" s="9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>1850.5</v>
       </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <f>E6+E7+E8</f>
-        <v>246.5</v>
-      </c>
-      <c r="G10">
-        <f>(G7-2*G7*E11)/B10</f>
+      <c r="C10" s="10"/>
+      <c r="D10">
+        <f>(D7-2*D7*B33)/B10</f>
         <v>0.69683375963845084</v>
       </c>
-      <c r="J10">
-        <f>J8/J7</f>
+      <c r="E10" s="10"/>
+      <c r="F10">
+        <f>F8/F7</f>
         <v>0.96190218859767629</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="1">
         <v>1780</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2">
-        <f>E9/E10</f>
-        <v>3.2454361054766734E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -750,98 +892,114 @@
         <f>B11/B10</f>
         <v>0.96190218859767629</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>114.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" thickBot="1">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
         <v>857</v>
       </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <f>E14-E15</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:9" ht="16" thickBot="1">
       <c r="A17" t="s">
         <v>5</v>
       </c>
       <c r="B17">
         <v>810.5</v>
       </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <f>E15+E14+E13</f>
-        <v>283.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="C17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="17" thickTop="1" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B18" s="2">
-        <f>(B17-(2*B17+E6)*E11)/B16</f>
+        <f>(B17-(2*B17+B28)*B33)/B16</f>
         <v>0.87891981320754275</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="2">
-        <f>E16/E17</f>
-        <v>3.3509700176366841E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="C18" s="13">
+        <f>SQRT(((1-2*$B$33)*$E$1/B16)^2+(((2*B17+$B$28)*$B$33-B17)/B16^2*$E$1)^2+(-$B$33/B16*$E$1)^2+((2*B17+$B$28)*$C$33/B16)^2)</f>
+        <v>4.2451124272150191E-3</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18">
+        <f>(1-2*$C$33)*$E$1/B16</f>
+        <v>5.810624672978942E-4</v>
+      </c>
+      <c r="F18">
+        <f>((2*B17+$B$28)*$B$33-B17)*$E$1/B16^2</f>
+        <v>-5.12788689152592E-4</v>
+      </c>
+      <c r="G18" s="12">
+        <f>-$B$33/B16*$E$1</f>
+        <v>-1.8934866426351653E-5</v>
+      </c>
+      <c r="H18">
+        <f>-1*(2*B17+$B$28)*$C$33/B16</f>
+        <v>-4.1785203268447316E-3</v>
+      </c>
+      <c r="I18" s="12">
+        <f>SQRT(SUMSQ(E18:H18))</f>
+        <v>4.2498207587669317E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -849,34 +1007,238 @@
         <v>1850.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:9" ht="16" thickBot="1">
       <c r="A23" t="s">
         <v>5</v>
       </c>
       <c r="B23">
         <v>1379</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="C23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickTop="1" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B24" s="2">
-        <f>(B23-(2*B23+E6)*E11)/B22</f>
+        <f>(B23-(2*B23+B28)*B33)/B22</f>
         <v>0.69431703399059408</v>
       </c>
+      <c r="C24" s="13">
+        <f>SQRT(((1-2*$B$33)*$E$1/B22)^2+(((2*B23+$B$28)*$B$33-B23)/B22^2*$E$1)^2+(-$B$33/B22*$E$1)^2+((2*B23+$B$28)*$C$33/B22)^2)</f>
+        <v>3.197644623263109E-3</v>
+      </c>
+      <c r="D24" s="19"/>
+      <c r="E24">
+        <f>(1-2*$C$33)*$E$1/B22</f>
+        <v>2.6910053200448271E-4</v>
+      </c>
+      <c r="F24">
+        <f>((2*B23+$B$28)*$B$33-B23)*$E$1/B22^2</f>
+        <v>-1.8760254903825834E-4</v>
+      </c>
+      <c r="G24" s="12">
+        <f>-$B$33/B22*$E$1</f>
+        <v>-8.7690789123930658E-6</v>
+      </c>
+      <c r="H24">
+        <f>-1*(2*B23+$B$28)*$C$33/B22</f>
+        <v>-3.1821098204983375E-3</v>
+      </c>
+      <c r="I24" s="12">
+        <f>SQRT(SUMSQ(E24:H24))</f>
+        <v>3.1989857172528419E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="11"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="11"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>143.5</v>
+      </c>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29">
+        <v>55.5</v>
+      </c>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30">
+        <v>47.5</v>
+      </c>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" thickBot="1">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <f>B29-B30</f>
+        <v>8</v>
+      </c>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" thickBot="1">
+      <c r="A32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32">
+        <f>B28+B29+B30</f>
+        <v>246.5</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:5" ht="17" thickTop="1" thickBot="1">
+      <c r="A33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <f>B31/B32</f>
+        <v>3.2454361054766734E-2</v>
+      </c>
+      <c r="C33" s="16">
+        <f>SQRT(((1/B32)*$E$1)^2+((-B31/B32^2)*$E$1)^2)</f>
+        <v>2.0294655257046953E-3</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="11"/>
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>124</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37">
+        <v>114.5</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" thickBot="1">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <f>B36-B37</f>
+        <v>9.5</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" thickBot="1">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <f>B37+B36+B35</f>
+        <v>283.5</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="1:5" ht="17" thickTop="1" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="2">
+        <f>B38/B39</f>
+        <v>3.3509700176366841E-2</v>
+      </c>
+      <c r="C40" s="16">
+        <f>SQRT(((1/B39)*$E$1)^2+((-B38/B39^2)*$E$1)^2)</f>
+        <v>1.7646583641593154E-3</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
